--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\musicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\superMusicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Boss</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>Haydon ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>complete, the hitboxes are probably too big now that they actually work but that can be changed easily</t>
+  </si>
+  <si>
+    <t>these work now I think, just need to get good feel</t>
   </si>
 </sst>
 </file>
@@ -447,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +473,10 @@
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -471,8 +486,11 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,8 +500,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -494,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -505,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -515,8 +536,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -527,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -537,8 +561,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -546,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -554,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -565,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -573,15 +600,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -592,15 +622,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
       <c r="C14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -608,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\superMusicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\superMusicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Boss</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>these work now I think, just need to get good feel</t>
+  </si>
+  <si>
+    <t>complete spells now work with the face buttons and you can attack with the left bumper or trigger</t>
+  </si>
+  <si>
+    <t>complete theres now a pretty basic health bar</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,6 +531,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -549,6 +558,9 @@
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\superMusicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\superMusicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Boss</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Haydon ?</t>
   </si>
   <si>
-    <t xml:space="preserve">           </t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -117,6 +114,15 @@
   </si>
   <si>
     <t>complete theres now a pretty basic health bar</t>
+  </si>
+  <si>
+    <t>think this is complete now, need to actually test with another controller though</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>created class for boss, has health that player can decrease with sword swing, needs delay, is currently broken from players end, calls the lose hp for every frame of swing</t>
   </si>
 </sst>
 </file>
@@ -132,12 +138,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,8 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +491,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,21 +513,21 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,75 +542,87 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,11 +648,11 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12">
         <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\superMusicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rupret\Documents\game concepts\superMusicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Boss</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>created class for boss, has health that player can decrease with sword swing, needs delay, is currently broken from players end, calls the lose hp for every frame of swing</t>
+  </si>
+  <si>
+    <t>Level might seem a bit large in areas but we can populate it</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,14 +534,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rupret\Documents\game concepts\superMusicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\superMusicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Boss</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Make spell code reusable</t>
   </si>
   <si>
-    <t>Main menu/Option/UI</t>
-  </si>
-  <si>
     <t>Sound-bgm/hit sounds/menu sounds/death sounds/onhit sounds</t>
   </si>
   <si>
@@ -126,6 +123,42 @@
   </si>
   <si>
     <t>Level might seem a bit large in areas but we can populate it</t>
+  </si>
+  <si>
+    <t>setup wood block blueprints</t>
+  </si>
+  <si>
+    <t>enemy animations</t>
+  </si>
+  <si>
+    <t>death animations</t>
+  </si>
+  <si>
+    <t>Main menu</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>decide on control scheme</t>
+  </si>
+  <si>
+    <t>decide on turret set up</t>
+  </si>
+  <si>
+    <t>design puzzle room</t>
+  </si>
+  <si>
+    <t>set up triggers for room changes</t>
+  </si>
+  <si>
+    <t>add wood blocks to level make it nice</t>
+  </si>
+  <si>
+    <t>add decoration sprites</t>
   </si>
 </sst>
 </file>
@@ -141,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +203,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,212 +534,307 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
         <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C17">
-    <sortCondition ref="C2:C17"/>
+  <sortState ref="A2:D28">
+    <sortCondition ref="C2:C28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Boss</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>add decoration sprites</t>
+  </si>
+  <si>
+    <t>this is pretty much done, just want it to have a burning flipbook that plays before it gets destroyed</t>
   </si>
 </sst>
 </file>
@@ -521,13 +524,13 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -552,6 +555,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\superMusicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simhy007/Downloads/superMusicGame-master 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
-  <si>
-    <t>Boss</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Fix player swing hitboxes</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Mana/Cooldown for spells ?</t>
   </si>
   <si>
-    <t>Show dmg with sprite color -JUICE</t>
-  </si>
-  <si>
     <t>Rotate turret to face player and shoot in relative forward direction</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Level might seem a bit large in areas but we can populate it</t>
   </si>
   <si>
-    <t>setup wood block blueprints</t>
-  </si>
-  <si>
     <t>enemy animations</t>
   </si>
   <si>
@@ -162,13 +156,52 @@
   </si>
   <si>
     <t>this is pretty much done, just want it to have a burning flipbook that plays before it gets destroyed</t>
+  </si>
+  <si>
+    <t>wood burn animation</t>
+  </si>
+  <si>
+    <t>Controller tooltips</t>
+  </si>
+  <si>
+    <t>Fix fireballs</t>
+  </si>
+  <si>
+    <t>Hit feedback</t>
+  </si>
+  <si>
+    <t>DEATH</t>
+  </si>
+  <si>
+    <t>Boss Room</t>
+  </si>
+  <si>
+    <t>zombie sprites</t>
+  </si>
+  <si>
+    <t>Design Document</t>
+  </si>
+  <si>
+    <t>everyone but mostly harris</t>
+  </si>
+  <si>
+    <t>tower sprites</t>
+  </si>
+  <si>
+    <t>fucking anyone</t>
+  </si>
+  <si>
+    <t>wall sprites</t>
+  </si>
+  <si>
+    <t>FRIEND FIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +209,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +230,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,15 +245,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,326 +569,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
-        <v>100</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>100</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>100</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1">
-        <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1">
-        <v>100</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C36" s="1">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D28">
-    <sortCondition ref="C2:C28"/>
+  <sortState ref="A2:D36">
+    <sortCondition ref="C2:C36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
+++ b/TODOLISTPLEASEREADANDUPDSTELOTSXOXOX.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simhy007/Downloads/superMusicGame-master 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\superMusicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Fix player swing hitboxes</t>
   </si>
@@ -195,12 +195,18 @@
   </si>
   <si>
     <t>FRIEND FIGHT</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">works now, is in player lose hp </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,19 +577,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -597,7 +603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -605,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -614,7 +620,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -625,7 +631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -633,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -644,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -655,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -666,16 +672,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -686,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -695,7 +706,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -703,15 +714,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -722,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -733,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -743,7 +760,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -754,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -765,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -773,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -784,7 +801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -794,7 +811,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -805,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -813,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -821,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -830,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -840,7 +857,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -850,7 +867,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -862,7 +879,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -890,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -904,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,7 +935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -960,7 +977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,7 +991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
